--- a/bva.xlsx
+++ b/bva.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E841B3F0-E73F-41D9-8B7C-8CAFEC0C49C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB70103-3B19-4E21-A6B0-8B311C887C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>verifyCredit</t>
   </si>
@@ -79,6 +78,69 @@
   </si>
   <si>
     <t>IDUser = -1, Valor do crédito = 0</t>
+  </si>
+  <si>
+    <t>getBicycle</t>
+  </si>
+  <si>
+    <t>O IDUser existe, IDUser&gt;0, IDDeposit &gt;0, crédito utilizador &gt;=1</t>
+  </si>
+  <si>
+    <t>O IDUser não existe, IDDeposit &gt;0, crédito utilizador &gt;=1</t>
+  </si>
+  <si>
+    <t>O IDUser não existe, IDDeposit =&lt;0, crédito utilizador &gt;=1</t>
+  </si>
+  <si>
+    <t>O IDUser  não existe, IDDeposit &gt;0, crédito utilizador &lt;1</t>
+  </si>
+  <si>
+    <t>O IDUser existe, IDUser&lt;0, IDDeposit &gt;0, crédito utilizador &gt;=1</t>
+  </si>
+  <si>
+    <t>O IDUser existe, IDUser&lt;0, IDDeposit &gt;0, crédito utilizador &lt;1</t>
+  </si>
+  <si>
+    <t>O IDUser existe, IDUser&lt;0, IDDeposit =&lt;0, crédito utilizador &lt;1</t>
+  </si>
+  <si>
+    <t>O IDUser existe, IDUser&gt;0, IDDeposit =&lt;0, crédito utilizador &gt;=1</t>
+  </si>
+  <si>
+    <t>O IDUser existe, IDUser&gt;0, IDDeposit &gt;0, crédito utilizador &lt;1</t>
+  </si>
+  <si>
+    <t>IDUser=1, IDDeposit=1, crédito utilizador=1</t>
+  </si>
+  <si>
+    <t>IDBike</t>
+  </si>
+  <si>
+    <t>IDUser=null, IDDeposit=1, crédito utilizador=1</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>IDUser=null, IDDeposit=0, crédito utilizador=1</t>
+  </si>
+  <si>
+    <t>IDUser=null, IDDeposit=1, crédito utilizador=-1</t>
+  </si>
+  <si>
+    <t>IDUser=-1, IDDeposit=1, crédito utilizador=1</t>
+  </si>
+  <si>
+    <t>IDUser=-1, IDDeposit=1, crédito utilizador=-1</t>
+  </si>
+  <si>
+    <t>IDUser=-1, IDDeposit=0, crédito utilizador=-1</t>
+  </si>
+  <si>
+    <t>IDUser=1, IDDeposit=0, crédito utilizador=1</t>
+  </si>
+  <si>
+    <t>IDUser=1, IDDeposit=1, crédito utilizador=-1</t>
   </si>
 </sst>
 </file>
@@ -164,13 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -178,6 +234,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -508,44 +570,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -555,9 +638,19 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -567,9 +660,19 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -579,9 +682,19 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -591,87 +704,297 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="H9" s="6">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="H10" s="6">
+        <v>7</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="F11" s="6" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="F12" s="6" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="H12" s="6">
+        <v>9</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="F13" s="6" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H17" s="6">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="M17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H18" s="6">
+        <v>4</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H20" s="6">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H21" s="6">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H22" s="6">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H23" s="6">
+        <v>9</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="M23" s="4">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="30">
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bva.xlsx
+++ b/bva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB70103-3B19-4E21-A6B0-8B311C887C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02863DF6-4D0A-4E4D-B828-8A30E695D399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
@@ -30,23 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>verifyCredit</t>
   </si>
   <si>
-    <t>O IDUser existe e o valor do crédito é &lt; 1</t>
-  </si>
-  <si>
-    <t>O IDUser existe e o valor do crédito é &gt;= 1</t>
-  </si>
-  <si>
-    <t>O IDUser não existe e o valor do crédito é &gt;= 1</t>
-  </si>
-  <si>
-    <t>O IDUser não existe e o valor do crédito é &lt; 1</t>
-  </si>
-  <si>
     <t>Casos de Teste</t>
   </si>
   <si>
@@ -59,96 +47,56 @@
     <t>Input</t>
   </si>
   <si>
-    <t>IDUser = 1, Valor do crédito = 1</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>IDUser = 1, Valor do crédito = 0</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>IDUser = -1, Valor do crédito = 1</t>
-  </si>
-  <si>
-    <t>IDUser = -1, Valor do crédito = 0</t>
-  </si>
-  <si>
     <t>getBicycle</t>
   </si>
   <si>
-    <t>O IDUser existe, IDUser&gt;0, IDDeposit &gt;0, crédito utilizador &gt;=1</t>
-  </si>
-  <si>
-    <t>O IDUser não existe, IDDeposit &gt;0, crédito utilizador &gt;=1</t>
-  </si>
-  <si>
-    <t>O IDUser não existe, IDDeposit =&lt;0, crédito utilizador &gt;=1</t>
-  </si>
-  <si>
-    <t>O IDUser  não existe, IDDeposit &gt;0, crédito utilizador &lt;1</t>
-  </si>
-  <si>
-    <t>O IDUser existe, IDUser&lt;0, IDDeposit &gt;0, crédito utilizador &gt;=1</t>
-  </si>
-  <si>
-    <t>O IDUser existe, IDUser&lt;0, IDDeposit &gt;0, crédito utilizador &lt;1</t>
-  </si>
-  <si>
-    <t>O IDUser existe, IDUser&lt;0, IDDeposit =&lt;0, crédito utilizador &lt;1</t>
-  </si>
-  <si>
-    <t>O IDUser existe, IDUser&gt;0, IDDeposit =&lt;0, crédito utilizador &gt;=1</t>
-  </si>
-  <si>
-    <t>O IDUser existe, IDUser&gt;0, IDDeposit &gt;0, crédito utilizador &lt;1</t>
-  </si>
-  <si>
-    <t>IDUser=1, IDDeposit=1, crédito utilizador=1</t>
-  </si>
-  <si>
-    <t>IDBike</t>
-  </si>
-  <si>
-    <t>IDUser=null, IDDeposit=1, crédito utilizador=1</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>IDUser=null, IDDeposit=0, crédito utilizador=1</t>
-  </si>
-  <si>
-    <t>IDUser=null, IDDeposit=1, crédito utilizador=-1</t>
-  </si>
-  <si>
-    <t>IDUser=-1, IDDeposit=1, crédito utilizador=1</t>
-  </si>
-  <si>
-    <t>IDUser=-1, IDDeposit=1, crédito utilizador=-1</t>
-  </si>
-  <si>
-    <t>IDUser=-1, IDDeposit=0, crédito utilizador=-1</t>
-  </si>
-  <si>
-    <t>IDUser=1, IDDeposit=0, crédito utilizador=1</t>
-  </si>
-  <si>
-    <t>IDUser=1, IDDeposit=1, crédito utilizador=-1</t>
+    <t>IDUser=&lt;0, IDDeposit &gt;0, , starttime&gt;=0</t>
+  </si>
+  <si>
+    <t>IDUser&gt;0, IDDeposit=&lt;0, , starttime&gt;=0</t>
+  </si>
+  <si>
+    <t>IDUser&gt;0, IDDeposit&gt;0, , starttime&lt;0</t>
+  </si>
+  <si>
+    <t>IDUser&gt;0, IDDeposit &gt;0, starttime&gt;=0</t>
+  </si>
+  <si>
+    <t>IDUser</t>
+  </si>
+  <si>
+    <t>IDDeposit</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>identificador da bicicleta  que será utilizada</t>
+  </si>
+  <si>
+    <t>O IDUser &gt;=0</t>
+  </si>
+  <si>
+    <t>O IDUser &lt;0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -214,11 +162,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,13 +236,37 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,48 +594,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -619,7 +646,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -631,371 +658,282 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="I5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
       <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="I7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="H8" s="6">
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6">
-        <v>6</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6">
-        <v>7</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="J10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H12" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6">
-        <v>8</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H13" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H14" s="6">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="6">
-        <v>9</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H16" s="6">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
       <c r="M16" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H17" s="6">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
       <c r="M17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H18" s="6">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="M18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H19" s="6">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="M19" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H20" s="6">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="M20" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H21" s="6">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="M21" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="6">
-        <v>8</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="M22" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H23" s="6">
-        <v>9</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="M23" s="4">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
+  <mergeCells count="14">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bva.xlsx
+++ b/bva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ES2II---TP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Desktop\bva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02863DF6-4D0A-4E4D-B828-8A30E695D399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3064CE3-396E-489D-B3F8-AEBE524BEA09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6972" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>verifyCredit</t>
   </si>
@@ -81,6 +81,72 @@
   </si>
   <si>
     <t>O IDUser &lt;0</t>
+  </si>
+  <si>
+    <t>returnBikycle</t>
+  </si>
+  <si>
+    <t>IDUser&gt;0, IDDeposit=&lt;0, , endtime&gt;=0</t>
+  </si>
+  <si>
+    <t>IDUser&gt;0, IDDeposit&gt;0, , endtime&lt;0</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>IDUser&gt;=0, IDDeposit &gt;0, endtime&gt;=0</t>
+  </si>
+  <si>
+    <t>calcula o pagamento</t>
+  </si>
+  <si>
+    <t>IDUser&lt;0, IDDeposit &gt;0, , endtime&gt;=0</t>
+  </si>
+  <si>
+    <t>registerUser</t>
+  </si>
+  <si>
+    <t>IdUser&gt;=0 , name !=null , rentalProgram=1</t>
+  </si>
+  <si>
+    <t>IdUser&gt;=0 , name !=null , rentalProgram=2</t>
+  </si>
+  <si>
+    <t>IdUser&gt;=0 , name !=null , rentalProgram=3</t>
+  </si>
+  <si>
+    <t>IdUser&gt;=0 , name !=null , rentalProgram=0</t>
+  </si>
+  <si>
+    <t>IdUser&lt;0 , name !=null , rentalProgram=1</t>
+  </si>
+  <si>
+    <t>IdUser&gt;=0 , name =null , rentalProgram=1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>rentalProgram</t>
+  </si>
+  <si>
+    <t>!null</t>
+  </si>
+  <si>
+    <t>IdUser&lt;0 , name !=null , rentalProgram=2</t>
+  </si>
+  <si>
+    <t>IdUser&gt;=0 , name =null , rentalProgram=2</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Cria utilizador</t>
+  </si>
+  <si>
+    <t>Exception</t>
   </si>
 </sst>
 </file>
@@ -154,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -214,11 +280,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,37 +311,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -298,7 +376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,49 +672,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" customWidth="1"/>
     <col min="12" max="12" width="7.44140625" customWidth="1"/>
     <col min="13" max="13" width="37.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" customWidth="1"/>
+    <col min="23" max="23" width="20.77734375" customWidth="1"/>
+    <col min="26" max="26" width="12.88671875" customWidth="1"/>
+    <col min="28" max="28" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="W1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -653,285 +759,676 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="W3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="W5" s="6">
+        <v>2</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="O6" s="6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="W6" s="6">
+        <v>3</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="O7" s="6">
+        <v>4</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="W7" s="6">
+        <v>4</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="O8" s="6">
+        <v>5</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="W8" s="6">
+        <v>5</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="10">
         <v>-1</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="W9" s="6">
+        <v>6</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="F10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="6">
+        <v>7</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="F11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
         <v>0</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="6">
+        <v>8</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H12" s="6">
         <v>2</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <v>0</v>
       </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
         <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="6">
+        <v>9</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H13" s="6">
         <v>3</v>
       </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H14" s="6">
+      <c r="O13" s="6">
+        <v>2</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="6">
+        <v>10</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="O14" s="6">
+        <v>7</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="O15" s="6">
+        <v>8</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W18" s="6">
+        <v>2</v>
+      </c>
+      <c r="X18" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W19" s="6">
+        <v>3</v>
+      </c>
+      <c r="X19" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W20" s="6">
+        <v>4</v>
+      </c>
+      <c r="X20" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W21" s="6">
+        <v>5</v>
+      </c>
+      <c r="X21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W22" s="6">
+        <v>6</v>
+      </c>
+      <c r="X22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W23" s="6">
+        <v>7</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="9">
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H15" s="6">
-        <v>5</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H16" s="6">
-        <v>6</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H17" s="6">
-        <v>7</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>14</v>
+      <c r="AB23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W24" s="6">
+        <v>8</v>
+      </c>
+      <c r="X24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W25" s="6">
+        <v>9</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W26" s="6">
+        <v>10</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="33">
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bva.xlsx
+++ b/bva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Desktop\bva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3064CE3-396E-489D-B3F8-AEBE524BEA09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA889274-9C0C-4699-849B-26215992D5CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6972" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>verifyCredit</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Exception</t>
+  </si>
+  <si>
+    <t>IdUser=0 , name !=null , rentalProgram=1</t>
+  </si>
+  <si>
+    <t>IdUser=0 , name !=null , rentalProgram=2</t>
   </si>
 </sst>
 </file>
@@ -320,6 +326,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,9 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,12 +351,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,43 +706,43 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="W1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -780,229 +786,229 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
       <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
       <c r="W4" s="6">
         <v>1</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
       <c r="O5" s="6">
         <v>2</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
       <c r="W5" s="6">
         <v>2</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
       <c r="O6" s="6">
         <v>3</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
       <c r="W6" s="6">
         <v>3</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="O7" s="6">
         <v>4</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
       <c r="W7" s="6">
         <v>4</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="O8" s="6">
         <v>5</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
       <c r="W8" s="6">
         <v>5</v>
       </c>
-      <c r="X8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
+      <c r="X8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="13">
         <v>-1</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="6">
         <v>6</v>
       </c>
-      <c r="X9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
+      <c r="X9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>0</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="F10" s="4" t="b">
         <v>1</v>
       </c>
@@ -1018,34 +1024,34 @@
       <c r="O10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W10" s="6">
         <v>7</v>
       </c>
-      <c r="X10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
+      <c r="X10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="F11" s="4" t="b">
         <v>1</v>
       </c>
@@ -1076,13 +1082,13 @@
       <c r="W11" s="6">
         <v>8</v>
       </c>
-      <c r="X11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
+      <c r="X11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H12" s="6">
@@ -1118,13 +1124,13 @@
       <c r="W12" s="6">
         <v>9</v>
       </c>
-      <c r="X12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
+      <c r="X12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H13" s="6">
@@ -1160,13 +1166,13 @@
       <c r="W13" s="6">
         <v>10</v>
       </c>
-      <c r="X13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
+      <c r="X13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="O14" s="6">
@@ -1184,6 +1190,16 @@
       <c r="T14" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="W14" s="6">
+        <v>11</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="O15" s="6">
@@ -1201,126 +1217,87 @@
       <c r="T15" s="4">
         <v>-1</v>
       </c>
-      <c r="W15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X15" s="18" t="s">
+      <c r="W15" s="6">
+        <v>12</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+    </row>
+    <row r="18" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AB15" s="3" t="s">
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AB18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="X16" s="8" t="s">
+    <row r="19" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Y16" s="8" t="s">
+      <c r="Y19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Z16" s="8" t="s">
+      <c r="Z19" s="8" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W17" s="6">
-        <v>1</v>
-      </c>
-      <c r="X17" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W18" s="6">
-        <v>2</v>
-      </c>
-      <c r="X18" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W19" s="6">
-        <v>3</v>
-      </c>
-      <c r="X19" s="9">
-        <v>-1</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W20" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X20" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Z20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W21" s="6">
-        <v>5</v>
-      </c>
-      <c r="X21" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="X21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="Z21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W22" s="6">
-        <v>6</v>
-      </c>
-      <c r="X22" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="X22" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="Z22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>38</v>
@@ -1328,16 +1305,16 @@
     </row>
     <row r="23" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W23" s="6">
-        <v>7</v>
-      </c>
-      <c r="X23" s="7">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="X23" s="9">
+        <v>-1</v>
       </c>
       <c r="Y23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z23" s="9">
-        <v>0</v>
+      <c r="Z23" s="7">
+        <v>2</v>
       </c>
       <c r="AB23" s="4" t="s">
         <v>38</v>
@@ -1345,16 +1322,16 @@
     </row>
     <row r="24" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W24" s="6">
-        <v>8</v>
-      </c>
-      <c r="X24" s="7">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0</v>
       </c>
       <c r="Y24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z24" s="9">
-        <v>1</v>
+      <c r="Z24" s="7">
+        <v>3</v>
       </c>
       <c r="AB24" s="4" t="s">
         <v>37</v>
@@ -1362,16 +1339,16 @@
     </row>
     <row r="25" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W25" s="6">
-        <v>9</v>
-      </c>
-      <c r="X25" s="7">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
       </c>
       <c r="Y25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="9">
-        <v>2</v>
+      <c r="Z25" s="7">
+        <v>4</v>
       </c>
       <c r="AB25" s="4" t="s">
         <v>37</v>
@@ -1379,56 +1356,143 @@
     </row>
     <row r="26" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W26" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X26" s="7">
         <v>1</v>
       </c>
-      <c r="Y26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z26" s="9">
-        <v>3</v>
+      <c r="Y26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>1</v>
       </c>
       <c r="AB26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="27" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W27" s="6">
+        <v>8</v>
+      </c>
+      <c r="X27" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W28" s="6">
+        <v>9</v>
+      </c>
+      <c r="X28" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W29" s="6">
+        <v>10</v>
+      </c>
+      <c r="X29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W30" s="6">
+        <v>11</v>
+      </c>
+      <c r="X30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W31" s="6">
+        <v>12</v>
+      </c>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="X10:AB10"/>
+  <mergeCells count="35">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="P1:T1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="P7:T7"/>
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="P8:T8"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="X7:AB7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bva.xlsx
+++ b/bva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Desktop\bva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA889274-9C0C-4699-849B-26215992D5CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3064CE3-396E-489D-B3F8-AEBE524BEA09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6972" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>verifyCredit</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>Exception</t>
-  </si>
-  <si>
-    <t>IdUser=0 , name !=null , rentalProgram=1</t>
-  </si>
-  <si>
-    <t>IdUser=0 , name !=null , rentalProgram=2</t>
   </si>
 </sst>
 </file>
@@ -326,31 +320,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,43 +700,43 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
       <c r="W1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -786,229 +780,229 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
       <c r="W4" s="6">
         <v>1</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="O5" s="6">
         <v>2</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
       <c r="W5" s="6">
         <v>2</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="O6" s="6">
         <v>3</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
       <c r="W6" s="6">
         <v>3</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="O7" s="6">
         <v>4</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
       <c r="W7" s="6">
         <v>4</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
       <c r="O8" s="6">
         <v>5</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
       <c r="W8" s="6">
         <v>5</v>
       </c>
-      <c r="X8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="X8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>-1</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="6">
         <v>6</v>
       </c>
-      <c r="X9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
+      <c r="X9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="F10" s="4" t="b">
         <v>1</v>
       </c>
@@ -1024,34 +1018,34 @@
       <c r="O10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W10" s="6">
         <v>7</v>
       </c>
-      <c r="X10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
+      <c r="X10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="F11" s="4" t="b">
         <v>1</v>
       </c>
@@ -1082,13 +1076,13 @@
       <c r="W11" s="6">
         <v>8</v>
       </c>
-      <c r="X11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="X11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H12" s="6">
@@ -1124,13 +1118,13 @@
       <c r="W12" s="6">
         <v>9</v>
       </c>
-      <c r="X12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="X12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H13" s="6">
@@ -1166,13 +1160,13 @@
       <c r="W13" s="6">
         <v>10</v>
       </c>
-      <c r="X13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
+      <c r="X13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="O14" s="6">
@@ -1190,16 +1184,6 @@
       <c r="T14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W14" s="6">
-        <v>11</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="O15" s="6">
@@ -1217,87 +1201,126 @@
       <c r="T15" s="4">
         <v>-1</v>
       </c>
-      <c r="W15" s="6">
-        <v>12</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
+      <c r="W15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
+      <c r="W18" s="6">
+        <v>2</v>
+      </c>
+      <c r="X18" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="X19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>32</v>
+      <c r="W19" s="6">
+        <v>3</v>
+      </c>
+      <c r="X19" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W20" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X20" s="9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Z20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W21" s="6">
-        <v>2</v>
-      </c>
-      <c r="X21" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="7" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="X21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="Z21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W22" s="6">
-        <v>3</v>
-      </c>
-      <c r="X22" s="9">
-        <v>-1</v>
-      </c>
-      <c r="Y22" s="7" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="X22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="Z22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>38</v>
@@ -1305,16 +1328,16 @@
     </row>
     <row r="23" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W23" s="6">
-        <v>4</v>
-      </c>
-      <c r="X23" s="9">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1</v>
       </c>
       <c r="Y23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z23" s="7">
-        <v>2</v>
+      <c r="Z23" s="9">
+        <v>0</v>
       </c>
       <c r="AB23" s="4" t="s">
         <v>38</v>
@@ -1322,16 +1345,16 @@
     </row>
     <row r="24" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W24" s="6">
-        <v>5</v>
-      </c>
-      <c r="X24" s="9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="X24" s="7">
+        <v>1</v>
       </c>
       <c r="Y24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z24" s="7">
-        <v>3</v>
+      <c r="Z24" s="9">
+        <v>1</v>
       </c>
       <c r="AB24" s="4" t="s">
         <v>37</v>
@@ -1339,16 +1362,16 @@
     </row>
     <row r="25" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W25" s="6">
-        <v>6</v>
-      </c>
-      <c r="X25" s="9">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
       </c>
       <c r="Y25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="7">
-        <v>4</v>
+      <c r="Z25" s="9">
+        <v>2</v>
       </c>
       <c r="AB25" s="4" t="s">
         <v>37</v>
@@ -1356,143 +1379,56 @@
     </row>
     <row r="26" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W26" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X26" s="7">
         <v>1</v>
       </c>
-      <c r="Y26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>1</v>
+      <c r="Y26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>3</v>
       </c>
       <c r="AB26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W27" s="6">
-        <v>8</v>
-      </c>
-      <c r="X27" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB27" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W28" s="6">
-        <v>9</v>
-      </c>
-      <c r="X28" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W29" s="6">
-        <v>10</v>
-      </c>
-      <c r="X29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W30" s="6">
-        <v>11</v>
-      </c>
-      <c r="X30" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>2</v>
-      </c>
-      <c r="AB30" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W31" s="6">
-        <v>12</v>
-      </c>
-      <c r="X31" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z31" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="P1:T1"/>
+  <mergeCells count="33">
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="X10:AB10"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="P7:T7"/>
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="P8:T8"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bva.xlsx
+++ b/bva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Desktop\bva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3064CE3-396E-489D-B3F8-AEBE524BEA09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C285CD8-AABD-418B-8945-28E7814147E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6972" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
@@ -320,6 +320,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,9 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,12 +345,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -376,7 +376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -675,7 +675,7 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,43 +700,43 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="W1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -780,229 +780,229 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
       <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
       <c r="W4" s="6">
         <v>1</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
       <c r="O5" s="6">
         <v>2</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
       <c r="W5" s="6">
         <v>2</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
       <c r="O6" s="6">
         <v>3</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
       <c r="W6" s="6">
         <v>3</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="O7" s="6">
         <v>4</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
       <c r="W7" s="6">
         <v>4</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="O8" s="6">
         <v>5</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
       <c r="W8" s="6">
         <v>5</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="13">
         <v>-1</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="6">
         <v>6</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>0</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="F10" s="4" t="b">
         <v>1</v>
       </c>
@@ -1018,34 +1018,34 @@
       <c r="O10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W10" s="6">
         <v>7</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="X10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="F11" s="4" t="b">
         <v>1</v>
       </c>
@@ -1076,13 +1076,13 @@
       <c r="W11" s="6">
         <v>8</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H12" s="6">
@@ -1118,13 +1118,13 @@
       <c r="W12" s="6">
         <v>9</v>
       </c>
-      <c r="X12" s="17" t="s">
+      <c r="X12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H13" s="6">
@@ -1160,13 +1160,13 @@
       <c r="W13" s="6">
         <v>10</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="O14" s="6">
@@ -1204,11 +1204,11 @@
       <c r="W15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X15" s="18" t="s">
+      <c r="X15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
       <c r="AB15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1396,11 +1396,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="X4:AB4"/>
     <mergeCell ref="X15:Z15"/>
@@ -1408,27 +1424,11 @@
     <mergeCell ref="X8:AB8"/>
     <mergeCell ref="X9:AB9"/>
     <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X7:AB7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bva.xlsx
+++ b/bva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Desktop\bva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ES2II---TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D1684F0-DD31-4409-B80F-E2A23011BB83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2855F851-0701-4638-8173-92139D3AA5F5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10392" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10395" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>verifyCredit</t>
   </si>
@@ -98,9 +98,6 @@
     <t>IDUser&gt;=0, IDDeposit &gt;0, endtime&gt;=0</t>
   </si>
   <si>
-    <t>calcula o pagamento</t>
-  </si>
-  <si>
     <t>IDUser&lt;0, IDDeposit &gt;0, , endtime&gt;=0</t>
   </si>
   <si>
@@ -134,12 +131,6 @@
     <t>!null</t>
   </si>
   <si>
-    <t>IdUser&lt;0 , name !=null , rentalProgram=2</t>
-  </si>
-  <si>
-    <t>IdUser&gt;=0 , name =null , rentalProgram=2</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>adicionar valor amount ao credito</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>bicycleRentalFee</t>
   </si>
   <si>
@@ -192,13 +180,19 @@
   </si>
   <si>
     <t>valor referente ao programa de aluguer</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Saldo atual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +202,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -338,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,10 +371,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +393,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,7 +429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -718,44 +725,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="37.88671875" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="37.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" customWidth="1"/>
-    <col min="28" max="28" width="15.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -764,8 +775,9 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -776,8 +788,9 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -788,8 +801,9 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -800,8 +814,9 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -812,21 +827,27 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -836,8 +857,10 @@
       <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -850,11 +873,13 @@
       <c r="D11" s="7">
         <v>0</v>
       </c>
+      <c r="E11" s="20"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -867,11 +892,13 @@
       <c r="D12" s="7">
         <v>0</v>
       </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -884,11 +911,13 @@
       <c r="D13" s="7">
         <v>0</v>
       </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -901,11 +930,13 @@
       <c r="D14" s="7">
         <v>0</v>
       </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -918,11 +949,13 @@
       <c r="D15" s="9">
         <v>-1</v>
       </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -935,11 +968,13 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -952,28 +987,34 @@
       <c r="D17" s="9">
         <v>1</v>
       </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -982,8 +1023,9 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -994,20 +1036,22 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -1018,8 +1062,9 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>4</v>
       </c>
@@ -1030,21 +1075,26 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="F28" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1104,9 @@
       <c r="D29" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -1068,11 +1119,13 @@
       <c r="D30" s="7">
         <v>1</v>
       </c>
+      <c r="E30" s="20"/>
       <c r="F30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2</v>
       </c>
@@ -1085,11 +1138,13 @@
       <c r="D31" s="7">
         <v>1</v>
       </c>
+      <c r="E31" s="20"/>
       <c r="F31" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>3</v>
       </c>
@@ -1102,11 +1157,13 @@
       <c r="D32" s="7">
         <v>1</v>
       </c>
+      <c r="E32" s="20"/>
       <c r="F32" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>4</v>
       </c>
@@ -1119,11 +1176,13 @@
       <c r="D33" s="7">
         <v>1</v>
       </c>
+      <c r="E33" s="20"/>
       <c r="F33" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>5</v>
       </c>
@@ -1136,11 +1195,13 @@
       <c r="D34" s="7">
         <v>1</v>
       </c>
+      <c r="E34" s="20"/>
       <c r="F34" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>6</v>
       </c>
@@ -1153,11 +1214,13 @@
       <c r="D35" s="9">
         <v>1</v>
       </c>
+      <c r="E35" s="20"/>
       <c r="F35" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>7</v>
       </c>
@@ -1170,11 +1233,13 @@
       <c r="D36" s="9">
         <v>0</v>
       </c>
+      <c r="E36" s="20"/>
       <c r="F36" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>8</v>
       </c>
@@ -1187,24 +1252,26 @@
       <c r="D37" s="9">
         <v>-1</v>
       </c>
+      <c r="E37" s="20"/>
       <c r="F37" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="20"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1215,12 +1282,12 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>1</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1228,12 +1295,12 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1241,12 +1308,12 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>3</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1254,12 +1321,12 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>4</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -1267,12 +1334,12 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>5</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1280,12 +1347,12 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>6</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -1293,23 +1360,23 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
       <c r="G50" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>13</v>
@@ -1318,10 +1385,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -1341,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2</v>
       </c>
@@ -1361,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>3</v>
       </c>
@@ -1377,11 +1444,11 @@
       <c r="E54" s="7">
         <v>1</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>4</v>
       </c>
@@ -1398,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>5</v>
       </c>
@@ -1421,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>6</v>
       </c>
@@ -1441,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>7</v>
       </c>
@@ -1458,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>8</v>
       </c>
@@ -1478,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>9</v>
       </c>
@@ -1501,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>10</v>
       </c>
@@ -1521,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>11</v>
       </c>
@@ -1538,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>12</v>
       </c>
@@ -1561,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>13</v>
       </c>
@@ -1578,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>14</v>
       </c>
@@ -1598,25 +1665,25 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -1626,7 +1693,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>1</v>
       </c>
@@ -1638,7 +1705,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>2</v>
       </c>
@@ -1650,27 +1717,27 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
       <c r="F74" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="16"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>1</v>
       </c>
@@ -1679,11 +1746,12 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="19"/>
+      <c r="E76" s="20"/>
       <c r="F76" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>2</v>
       </c>
@@ -1692,11 +1760,12 @@
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
+      <c r="E77" s="20"/>
       <c r="F77" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>3</v>
       </c>
@@ -1705,23 +1774,24 @@
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
+      <c r="E78" s="20"/>
       <c r="F78" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
@@ -1731,63 +1801,63 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>1</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>2</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>3</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="12"/>
+      <c r="C88" s="13"/>
       <c r="F88" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>1</v>
       </c>
@@ -1797,11 +1867,12 @@
       <c r="C90" s="7">
         <v>1</v>
       </c>
+      <c r="D90" s="20"/>
       <c r="F90" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>2</v>
       </c>
@@ -1811,11 +1882,12 @@
       <c r="C91" s="7">
         <v>1</v>
       </c>
+      <c r="D91" s="20"/>
       <c r="F91" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>3</v>
       </c>
@@ -1825,11 +1897,12 @@
       <c r="C92" s="7">
         <v>1</v>
       </c>
+      <c r="D92" s="20"/>
       <c r="F92" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>4</v>
       </c>
@@ -1839,11 +1912,12 @@
       <c r="C93" s="9">
         <v>1</v>
       </c>
+      <c r="D93" s="20"/>
       <c r="F93" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>5</v>
       </c>
@@ -1853,26 +1927,27 @@
       <c r="C94" s="9">
         <v>0</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="20"/>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>2</v>
       </c>
@@ -1882,31 +1957,31 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>1</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>2</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>3</v>
       </c>
@@ -1918,326 +1993,247 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>4</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>5</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>6</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>7</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>8</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
-        <v>9</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
-        <v>10</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="12" t="s">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="F111" s="3" t="s">
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="F109" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="8" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C110" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="8" t="s">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>1</v>
+      </c>
+      <c r="B111" s="9">
+        <v>1</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D111" s="7">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>2</v>
+      </c>
+      <c r="B112" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="7">
+        <v>1</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>4</v>
+      </c>
+      <c r="B114" s="7">
+        <v>1</v>
+      </c>
+      <c r="C114" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="7">
-        <v>1</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="D114" s="7">
+        <v>1</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>5</v>
+      </c>
+      <c r="B115" s="7">
+        <v>1</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="9">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>6</v>
+      </c>
+      <c r="B116" s="7">
+        <v>1</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="9">
+        <v>1</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>7</v>
+      </c>
+      <c r="B117" s="7">
+        <v>1</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="9">
         <v>2</v>
       </c>
-      <c r="B114" s="9">
-        <v>1</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="7">
-        <v>2</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
+      <c r="F117" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>8</v>
+      </c>
+      <c r="B118" s="7">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="9">
         <v>3</v>
       </c>
-      <c r="B115" s="9">
-        <v>-1</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="7">
-        <v>1</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
-        <v>4</v>
-      </c>
-      <c r="B116" s="9">
-        <v>-1</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D116" s="7">
-        <v>2</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
-        <v>5</v>
-      </c>
-      <c r="B117" s="9">
-        <v>0</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" s="7">
-        <v>1</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
-        <v>6</v>
-      </c>
-      <c r="B118" s="9">
-        <v>0</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D118" s="7">
-        <v>2</v>
-      </c>
       <c r="F118" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
-        <v>7</v>
-      </c>
-      <c r="B119" s="7">
-        <v>1</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D119" s="7">
-        <v>1</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
-        <v>8</v>
-      </c>
-      <c r="B120" s="7">
-        <v>1</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D120" s="7">
-        <v>2</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
-        <v>9</v>
-      </c>
-      <c r="B121" s="7">
-        <v>1</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121" s="9">
-        <v>0</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
-        <v>10</v>
-      </c>
-      <c r="B122" s="7">
-        <v>1</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
-        <v>11</v>
-      </c>
-      <c r="B123" s="7">
-        <v>1</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="9">
-        <v>2</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
-        <v>12</v>
-      </c>
-      <c r="B124" s="7">
-        <v>1</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D124" s="9">
-        <v>3</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
+  <mergeCells count="42">
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B44:G44"/>
@@ -2248,35 +2244,12 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
